--- a/дополнительные-часы/тест/файл доп часов.xlsx
+++ b/дополнительные-часы/тест/файл доп часов.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9338F390-9AE1-4E55-A5CF-CB8310CB415B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="данные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+  <si>
+    <t>ПОДПРОЕКТ</t>
+  </si>
+  <si>
+    <t>ОРГАНИЗАЦИЯ</t>
+  </si>
+  <si>
+    <t>КЛАССИФИКАТОР</t>
+  </si>
+  <si>
+    <t>РАБОТА ОПИСАНИЕ</t>
+  </si>
+  <si>
+    <t>РАБОТА ГРУППА</t>
+  </si>
+  <si>
+    <t>ТИПОВЫЕ</t>
+  </si>
+  <si>
+    <t>ЧАСЫ</t>
+  </si>
+  <si>
+    <t>СТОИМОСТЬ РУБ</t>
+  </si>
+  <si>
+    <t>ЛИШНИЙ СТОЛБЕЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ДАТА </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПРОЕКТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМУРСКИЙ ГПЗ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">П1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕЛЕССТРОЙМОНТАЖ ООО </t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>описание работы 1</t>
+  </si>
+  <si>
+    <t>группа работы 1</t>
+  </si>
+  <si>
+    <t>br1-01_м3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 к </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 н </t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>субподряд</t>
+  </si>
+  <si>
+    <t>br4-014_м3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +154,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A87329B-0468-459D-A4FD-342911A39C36}" name="ДОП_ЧАСЫ" displayName="ДОП_ЧАСЫ" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11" xr:uid="{3FDBF8A0-FB99-4F6F-9B79-49A0BA80B6C6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5FC5D829-29A0-45FB-9E40-E01A639693F5}" name=" ДАТА "/>
+    <tableColumn id="2" xr3:uid="{C21B1121-805C-4CDE-8937-07977A388B92}" name=" ПРОЕКТ "/>
+    <tableColumn id="3" xr3:uid="{21C0A33D-188E-4634-9FCB-3352B3F43BFD}" name="ПОДПРОЕКТ"/>
+    <tableColumn id="4" xr3:uid="{08D57945-F872-4861-8AB0-3F2832E6078E}" name="ОРГАНИЗАЦИЯ"/>
+    <tableColumn id="5" xr3:uid="{D46B440A-7AC1-4948-A0BC-3DC78D7BBF95}" name="КЛАССИФИКАТОР"/>
+    <tableColumn id="6" xr3:uid="{F6D76582-7835-4349-AEB8-C8D90B24D734}" name="РАБОТА ОПИСАНИЕ"/>
+    <tableColumn id="7" xr3:uid="{02357594-26B1-451A-938A-E250F9A8A95A}" name="РАБОТА ГРУППА"/>
+    <tableColumn id="8" xr3:uid="{352567BF-28BD-41D3-9967-79FD89C9D962}" name="ТИПОВЫЕ"/>
+    <tableColumn id="9" xr3:uid="{210FAB35-109E-485B-8B41-23C61C716527}" name="ЧАСЫ"/>
+    <tableColumn id="10" xr3:uid="{027962C2-181E-423A-9FD0-91A70A1B211B}" name="СТОИМОСТЬ РУБ"/>
+    <tableColumn id="11" xr3:uid="{DAF2F194-8296-4031-B478-851212326D51}" name="ЛИШНИЙ СТОЛБЕЦ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +438,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="I10">
+        <v>99</v>
+      </c>
+      <c r="J10">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>